--- a/src/main/document/导入模板.xlsx
+++ b/src/main/document/导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>用户昵称</t>
   </si>
@@ -42,71 +42,92 @@
     <t>202cb962ac59075b964b07152d234b70</t>
   </si>
   <si>
-    <t>张三123</t>
-  </si>
-  <si>
-    <t>张三124</t>
-  </si>
-  <si>
-    <t>张三125</t>
+    <t>昵称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户4</t>
+  </si>
+  <si>
+    <t>用户1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户2</t>
+  </si>
+  <si>
+    <t>用户3</t>
+  </si>
+  <si>
+    <t>昵称2</t>
+  </si>
+  <si>
+    <t>昵称3</t>
+  </si>
+  <si>
+    <t>昵称4</t>
+  </si>
+  <si>
+    <t>张三001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三002</t>
+  </si>
+  <si>
+    <t>张三003</t>
+  </si>
+  <si>
+    <t>张三004</t>
+  </si>
+  <si>
+    <t>17300001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17300001112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17300001113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17300001114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17300001111@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17300001112@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17300001113@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17300001114@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atguigu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upd@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44445</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44446</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户4</t>
-  </si>
-  <si>
-    <t>用户5</t>
   </si>
 </sst>
 </file>
@@ -464,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -476,8 +497,8 @@
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
@@ -485,7 +506,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -511,86 +532,116 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3:F5" r:id="rId2" display="17300001111@qq.com"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
